--- a/CPyr/Original dataset.xlsx
+++ b/CPyr/Original dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\CPyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA8E1C-F62B-46A0-B969-514AF068E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E314841D-DED3-4CF7-A72A-B6E1578AD03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,9 +429,6 @@
     <t>Distance between Pyrimidine center and Minimum (Angstrom)_3</t>
   </si>
   <si>
-    <t>Molecule_Et sites</t>
-  </si>
-  <si>
     <t xml:space="preserve">CN CN CN </t>
   </si>
   <si>
@@ -720,6 +717,10 @@
   </si>
   <si>
     <t>NH2 CF3 H</t>
+  </si>
+  <si>
+    <t>Molecules (the orange-labeled samples are the original samples, and the others are samples generated after site exchange)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1110,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ER1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="FG25" sqref="FG25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1256,7 +1257,7 @@
   <sheetData>
     <row r="1" spans="1:162" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1265,19 +1266,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -1355,10 +1356,10 @@
         <v>27</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>28</v>
@@ -1373,10 +1374,10 @@
         <v>31</v>
       </c>
       <c r="AN1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>32</v>
@@ -1424,19 +1425,19 @@
         <v>46</v>
       </c>
       <c r="BE1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF1" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="BG1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="BH1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="BJ1" s="2" t="s">
         <v>48</v>
@@ -1514,10 +1515,10 @@
         <v>72</v>
       </c>
       <c r="CI1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="CK1" s="2" t="s">
         <v>73</v>
@@ -1532,10 +1533,10 @@
         <v>76</v>
       </c>
       <c r="CO1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CP1" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="CQ1" s="2" t="s">
         <v>77</v>
@@ -1583,19 +1584,19 @@
         <v>91</v>
       </c>
       <c r="DF1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DG1" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="DH1" s="2" t="s">
         <v>92</v>
       </c>
       <c r="DI1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="DK1" s="2" t="s">
         <v>93</v>
@@ -1673,10 +1674,10 @@
         <v>117</v>
       </c>
       <c r="EJ1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="EK1" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="EK1" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="EL1" s="2" t="s">
         <v>118</v>
@@ -1691,13 +1692,13 @@
         <v>121</v>
       </c>
       <c r="EP1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="EQ1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="ER1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="ES1" s="2" t="s">
         <v>122</v>
@@ -1736,15 +1737,15 @@
         <v>133</v>
       </c>
       <c r="FE1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="FF1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1">
         <v>1.8980429999999999</v>
@@ -2232,7 +2233,7 @@
     </row>
     <row r="3" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1">
         <v>1.9209369999999999</v>
@@ -2720,7 +2721,7 @@
     </row>
     <row r="4" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1">
         <v>0.68464499999999995</v>
@@ -3208,7 +3209,7 @@
     </row>
     <row r="5" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -3696,7 +3697,7 @@
     </row>
     <row r="6" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1">
         <v>0.77920500000000004</v>
@@ -4184,7 +4185,7 @@
     </row>
     <row r="7" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1">
         <v>0.77920500000000004</v>
@@ -4672,7 +4673,7 @@
     </row>
     <row r="8" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -5160,7 +5161,7 @@
     </row>
     <row r="9" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1">
         <v>0.68464499999999995</v>
@@ -5648,7 +5649,7 @@
     </row>
     <row r="10" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1">
         <v>0.77920500000000004</v>
@@ -6136,7 +6137,7 @@
     </row>
     <row r="11" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -6624,7 +6625,7 @@
     </row>
     <row r="12" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1">
         <v>0.68464499999999995</v>
@@ -7112,7 +7113,7 @@
     </row>
     <row r="13" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1">
         <v>1.8980429999999999</v>
@@ -7600,7 +7601,7 @@
     </row>
     <row r="14" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1">
         <v>1.9209369999999999</v>
@@ -8088,7 +8089,7 @@
     </row>
     <row r="15" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="1">
         <v>2.2572709999999998</v>
@@ -8576,7 +8577,7 @@
     </row>
     <row r="16" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -9064,7 +9065,7 @@
     </row>
     <row r="17" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1">
         <v>0.69227099999999997</v>
@@ -9552,7 +9553,7 @@
     </row>
     <row r="18" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1">
         <v>0.77920500000000004</v>
@@ -10040,7 +10041,7 @@
     </row>
     <row r="19" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="1">
         <v>0.68464499999999995</v>
@@ -10528,7 +10529,7 @@
     </row>
     <row r="20" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1">
         <v>1.9209369999999999</v>
@@ -11016,7 +11017,7 @@
     </row>
     <row r="21" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="1">
         <v>0.69227099999999997</v>
@@ -11504,7 +11505,7 @@
     </row>
     <row r="22" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -11992,7 +11993,7 @@
     </row>
     <row r="23" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="1">
         <v>0.77920500000000004</v>
@@ -12480,7 +12481,7 @@
     </row>
     <row r="24" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1">
         <v>2.2572709999999998</v>
@@ -12968,7 +12969,7 @@
     </row>
     <row r="25" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1">
         <v>0.68464499999999995</v>
@@ -13456,7 +13457,7 @@
     </row>
     <row r="26" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -13944,7 +13945,7 @@
     </row>
     <row r="27" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1">
         <v>1.9209369999999999</v>
@@ -14432,7 +14433,7 @@
     </row>
     <row r="28" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -14920,7 +14921,7 @@
     </row>
     <row r="29" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="1">
         <v>0.68464499999999995</v>
@@ -15408,7 +15409,7 @@
     </row>
     <row r="30" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="1">
         <v>1.9209369999999999</v>
@@ -15896,7 +15897,7 @@
     </row>
     <row r="31" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -16384,7 +16385,7 @@
     </row>
     <row r="32" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1">
         <v>0.68464499999999995</v>
@@ -16872,7 +16873,7 @@
     </row>
     <row r="33" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1">
         <v>1.9209369999999999</v>
@@ -17360,7 +17361,7 @@
     </row>
     <row r="34" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1">
         <v>0.77920500000000004</v>
@@ -17848,7 +17849,7 @@
     </row>
     <row r="35" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -18336,7 +18337,7 @@
     </row>
     <row r="36" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="1">
         <v>0.68464499999999995</v>
@@ -18824,7 +18825,7 @@
     </row>
     <row r="37" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" s="1">
         <v>0.68464499999999995</v>
@@ -19312,7 +19313,7 @@
     </row>
     <row r="38" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1">
         <v>0.69227099999999997</v>
@@ -19800,7 +19801,7 @@
     </row>
     <row r="39" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -20288,7 +20289,7 @@
     </row>
     <row r="40" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -20776,7 +20777,7 @@
     </row>
     <row r="41" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -21264,7 +21265,7 @@
     </row>
     <row r="42" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B42" s="1">
         <v>0.69227099999999997</v>
@@ -21752,7 +21753,7 @@
     </row>
     <row r="43" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43" s="1">
         <v>0.68464499999999995</v>
@@ -22240,7 +22241,7 @@
     </row>
     <row r="44" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1">
         <v>0.69227099999999997</v>
@@ -22728,7 +22729,7 @@
     </row>
     <row r="45" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="1">
         <v>2.2572709999999998</v>
@@ -23216,7 +23217,7 @@
     </row>
     <row r="46" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="1">
         <v>2.2572709999999998</v>
@@ -23704,7 +23705,7 @@
     </row>
     <row r="47" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="1">
         <v>0.69227099999999997</v>
@@ -24192,7 +24193,7 @@
     </row>
     <row r="48" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B48" s="1">
         <v>1.8980429999999999</v>
@@ -24680,7 +24681,7 @@
     </row>
     <row r="49" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B49" s="1">
         <v>1.9209369999999999</v>
@@ -25168,7 +25169,7 @@
     </row>
     <row r="50" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1">
         <v>2.2572709999999998</v>
@@ -25656,7 +25657,7 @@
     </row>
     <row r="51" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B51" s="1">
         <v>1.8980429999999999</v>
@@ -26144,7 +26145,7 @@
     </row>
     <row r="52" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B52" s="1">
         <v>2.2572709999999998</v>
@@ -26632,7 +26633,7 @@
     </row>
     <row r="53" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B53" s="1">
         <v>1.8980429999999999</v>
@@ -27120,7 +27121,7 @@
     </row>
     <row r="54" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" s="1">
         <v>0.77920500000000004</v>
@@ -27608,7 +27609,7 @@
     </row>
     <row r="55" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="1">
         <v>1.8980429999999999</v>
@@ -28096,7 +28097,7 @@
     </row>
     <row r="56" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56" s="1">
         <v>0.69227099999999997</v>
@@ -28584,7 +28585,7 @@
     </row>
     <row r="57" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57" s="1">
         <v>2.2572709999999998</v>
@@ -29072,7 +29073,7 @@
     </row>
     <row r="58" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58" s="1">
         <v>0.77920500000000004</v>
@@ -29560,7 +29561,7 @@
     </row>
     <row r="59" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" s="1">
         <v>2.2572709999999998</v>
@@ -30048,7 +30049,7 @@
     </row>
     <row r="60" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60" s="1">
         <v>0.77920500000000004</v>
@@ -30536,7 +30537,7 @@
     </row>
     <row r="61" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61" s="1">
         <v>0.69227099999999997</v>
@@ -31024,7 +31025,7 @@
     </row>
     <row r="62" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" s="1">
         <v>1.8980429999999999</v>
@@ -31512,7 +31513,7 @@
     </row>
     <row r="63" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63" s="1">
         <v>1.8980429999999999</v>
@@ -32000,7 +32001,7 @@
     </row>
     <row r="64" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B64" s="1">
         <v>0.69227099999999997</v>
@@ -32488,7 +32489,7 @@
     </row>
     <row r="65" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B65" s="1">
         <v>2.2572709999999998</v>
@@ -32976,7 +32977,7 @@
     </row>
     <row r="66" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B66" s="1">
         <v>2.2572709999999998</v>
@@ -33464,7 +33465,7 @@
     </row>
     <row r="67" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B67" s="1">
         <v>1.8980429999999999</v>
@@ -33952,7 +33953,7 @@
     </row>
     <row r="68" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B68" s="1">
         <v>0.77920500000000004</v>
@@ -34440,7 +34441,7 @@
     </row>
     <row r="69" spans="1:162" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="1">
         <v>1.9209369999999999</v>
